--- a/data/pca/factorExposure/factorExposure_2015-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01009201517807624</v>
+        <v>0.009049954368876987</v>
       </c>
       <c r="C2">
-        <v>0.0398765142109441</v>
+        <v>0.0549513536327094</v>
       </c>
       <c r="D2">
-        <v>0.1296335663464151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0853571413461911</v>
+      </c>
+      <c r="E2">
+        <v>0.09038257069019873</v>
+      </c>
+      <c r="F2">
+        <v>-0.1206249986600117</v>
+      </c>
+      <c r="G2">
+        <v>0.07115396220248267</v>
+      </c>
+      <c r="H2">
+        <v>-0.08470912044659043</v>
+      </c>
+      <c r="I2">
+        <v>-0.01837640978076834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03442558398423343</v>
+        <v>0.01673252423897647</v>
       </c>
       <c r="C4">
-        <v>0.1199890149883275</v>
+        <v>0.1405313487460272</v>
       </c>
       <c r="D4">
-        <v>0.08527808199886423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04779484006392597</v>
+      </c>
+      <c r="E4">
+        <v>0.07136676586918979</v>
+      </c>
+      <c r="F4">
+        <v>-0.111705752358886</v>
+      </c>
+      <c r="G4">
+        <v>-0.05271985899501246</v>
+      </c>
+      <c r="H4">
+        <v>0.00982305348009458</v>
+      </c>
+      <c r="I4">
+        <v>-0.0704354666700741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.01827049829175277</v>
+        <v>0.02855799658023676</v>
       </c>
       <c r="C6">
-        <v>0.04209188558774502</v>
+        <v>0.05349445551059649</v>
       </c>
       <c r="D6">
-        <v>0.07821412482317988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05752792408165959</v>
+      </c>
+      <c r="E6">
+        <v>0.08780949441664776</v>
+      </c>
+      <c r="F6">
+        <v>-0.06335638271779558</v>
+      </c>
+      <c r="G6">
+        <v>0.04162137288312471</v>
+      </c>
+      <c r="H6">
+        <v>0.03970644822382748</v>
+      </c>
+      <c r="I6">
+        <v>-0.0202040831230338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0131907645045111</v>
+        <v>0.003331081792369249</v>
       </c>
       <c r="C7">
-        <v>0.04192470934703137</v>
+        <v>0.05655517133202262</v>
       </c>
       <c r="D7">
-        <v>0.07036174213477597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05311284916239925</v>
+      </c>
+      <c r="E7">
+        <v>0.06651260256330248</v>
+      </c>
+      <c r="F7">
+        <v>-0.0155004388977998</v>
+      </c>
+      <c r="G7">
+        <v>-0.01359350788975004</v>
+      </c>
+      <c r="H7">
+        <v>0.04361230219175496</v>
+      </c>
+      <c r="I7">
+        <v>-0.08421001183525775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.005705851001134492</v>
+        <v>-0.008304575879569625</v>
       </c>
       <c r="C8">
-        <v>0.04750261362204897</v>
+        <v>0.05494224336171621</v>
       </c>
       <c r="D8">
-        <v>0.06950222122037092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0241560760418502</v>
+      </c>
+      <c r="E8">
+        <v>0.06055248915532164</v>
+      </c>
+      <c r="F8">
+        <v>-0.0753746191052363</v>
+      </c>
+      <c r="G8">
+        <v>-0.02176436031100835</v>
+      </c>
+      <c r="H8">
+        <v>-0.0585153214939332</v>
+      </c>
+      <c r="I8">
+        <v>-0.02131053597228011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.01879870897468663</v>
+        <v>0.009191325941244491</v>
       </c>
       <c r="C9">
-        <v>0.09849302925892835</v>
+        <v>0.1119926006337582</v>
       </c>
       <c r="D9">
-        <v>0.07982005545929512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04335546159930412</v>
+      </c>
+      <c r="E9">
+        <v>0.06152138505984274</v>
+      </c>
+      <c r="F9">
+        <v>-0.0756391236009</v>
+      </c>
+      <c r="G9">
+        <v>-0.001552653312963504</v>
+      </c>
+      <c r="H9">
+        <v>0.03001380519839525</v>
+      </c>
+      <c r="I9">
+        <v>-0.07352313439971794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2220989836679562</v>
+        <v>0.2425269819087767</v>
       </c>
       <c r="C10">
-        <v>-0.1074929866894149</v>
+        <v>-0.08058042934376716</v>
       </c>
       <c r="D10">
-        <v>-0.04135877490334192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01449439191096834</v>
+      </c>
+      <c r="E10">
+        <v>-0.0200933973318515</v>
+      </c>
+      <c r="F10">
+        <v>-0.01731308700818216</v>
+      </c>
+      <c r="G10">
+        <v>-0.002939879022731452</v>
+      </c>
+      <c r="H10">
+        <v>0.02851860067138846</v>
+      </c>
+      <c r="I10">
+        <v>-0.04832229177578809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.006040667635038965</v>
+        <v>0.009926637296204778</v>
       </c>
       <c r="C11">
-        <v>0.04760533767435556</v>
+        <v>0.06661215684471572</v>
       </c>
       <c r="D11">
-        <v>0.04819665818288529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02579707236442101</v>
+      </c>
+      <c r="E11">
+        <v>0.05114769986850765</v>
+      </c>
+      <c r="F11">
+        <v>-0.008765804936965231</v>
+      </c>
+      <c r="G11">
+        <v>-0.0104084322763572</v>
+      </c>
+      <c r="H11">
+        <v>0.03392243198092762</v>
+      </c>
+      <c r="I11">
+        <v>-0.04240933448114565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.008105200033025766</v>
+        <v>0.01108948567734832</v>
       </c>
       <c r="C12">
-        <v>0.05093214650133442</v>
+        <v>0.05777258897775626</v>
       </c>
       <c r="D12">
-        <v>0.04965544531375261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02884522823552296</v>
+      </c>
+      <c r="E12">
+        <v>0.03677131868100501</v>
+      </c>
+      <c r="F12">
+        <v>0.005103102085397402</v>
+      </c>
+      <c r="G12">
+        <v>0.01682252127122335</v>
+      </c>
+      <c r="H12">
+        <v>0.02837134458714613</v>
+      </c>
+      <c r="I12">
+        <v>-0.05125296348614911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01372472489902902</v>
+        <v>0.002488014320867875</v>
       </c>
       <c r="C13">
-        <v>0.0612812595737947</v>
+        <v>0.09037769431023451</v>
       </c>
       <c r="D13">
-        <v>0.1238877683920636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.09775946255281082</v>
+      </c>
+      <c r="E13">
+        <v>0.09967657193092462</v>
+      </c>
+      <c r="F13">
+        <v>-0.03606721694506285</v>
+      </c>
+      <c r="G13">
+        <v>0.1083949782615224</v>
+      </c>
+      <c r="H13">
+        <v>0.01949557871587248</v>
+      </c>
+      <c r="I13">
+        <v>-0.08720719215207412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.009199448331760975</v>
+        <v>0.002620631002423086</v>
       </c>
       <c r="C14">
-        <v>0.0273171821623978</v>
+        <v>0.05041074695622218</v>
       </c>
       <c r="D14">
-        <v>0.06163955488517698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03867148392983404</v>
+      </c>
+      <c r="E14">
+        <v>0.1043988879927628</v>
+      </c>
+      <c r="F14">
+        <v>-0.02491471188066892</v>
+      </c>
+      <c r="G14">
+        <v>0.04364798241246391</v>
+      </c>
+      <c r="H14">
+        <v>0.05881058782240119</v>
+      </c>
+      <c r="I14">
+        <v>-0.1380328342720303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001872085036532261</v>
+        <v>-0.004981397003083058</v>
       </c>
       <c r="C15">
-        <v>0.02250748647228235</v>
+        <v>0.0432305297784739</v>
       </c>
       <c r="D15">
-        <v>0.06716676080461167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04356971704967862</v>
+      </c>
+      <c r="E15">
+        <v>0.06611327625161054</v>
+      </c>
+      <c r="F15">
+        <v>-0.02182690141815997</v>
+      </c>
+      <c r="G15">
+        <v>-0.003719173188717098</v>
+      </c>
+      <c r="H15">
+        <v>0.00693827742511721</v>
+      </c>
+      <c r="I15">
+        <v>-0.05333310393788675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.004698275581789469</v>
+        <v>0.008336772091593335</v>
       </c>
       <c r="C16">
-        <v>0.04493538935082397</v>
+        <v>0.05774236870402356</v>
       </c>
       <c r="D16">
-        <v>0.04111053185325054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02581572460985374</v>
+      </c>
+      <c r="E16">
+        <v>0.03713195158924762</v>
+      </c>
+      <c r="F16">
+        <v>-0.002111512623943525</v>
+      </c>
+      <c r="G16">
+        <v>0.004842724382966078</v>
+      </c>
+      <c r="H16">
+        <v>0.03789511136992652</v>
+      </c>
+      <c r="I16">
+        <v>-0.0405072067862413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007746906500356593</v>
+        <v>0.00303205614562114</v>
       </c>
       <c r="C19">
-        <v>0.01933838169732121</v>
+        <v>0.01453944446909025</v>
       </c>
       <c r="D19">
-        <v>0.03229887873151058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.004650292520453451</v>
+      </c>
+      <c r="E19">
+        <v>0.01574353444523235</v>
+      </c>
+      <c r="F19">
+        <v>0.008344659906856516</v>
+      </c>
+      <c r="G19">
+        <v>0.002965269005545489</v>
+      </c>
+      <c r="H19">
+        <v>-0.01855550748441084</v>
+      </c>
+      <c r="I19">
+        <v>-0.02925494355984961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004087600313538976</v>
+        <v>0.001157992883593959</v>
       </c>
       <c r="C20">
-        <v>0.04246530183958895</v>
+        <v>0.06268528358541076</v>
       </c>
       <c r="D20">
-        <v>0.06059872906751661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04568218829691285</v>
+      </c>
+      <c r="E20">
+        <v>0.06148372071572893</v>
+      </c>
+      <c r="F20">
+        <v>-0.01782756538574909</v>
+      </c>
+      <c r="G20">
+        <v>-0.01297618420828012</v>
+      </c>
+      <c r="H20">
+        <v>0.06091519563206065</v>
+      </c>
+      <c r="I20">
+        <v>-0.06262929822339995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008474685819072876</v>
+        <v>0.005993860608693682</v>
       </c>
       <c r="C21">
-        <v>0.06342494547217924</v>
+        <v>0.07238505708330518</v>
       </c>
       <c r="D21">
-        <v>0.08431010282338873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.04621312190928412</v>
+      </c>
+      <c r="E21">
+        <v>0.07609926819488508</v>
+      </c>
+      <c r="F21">
+        <v>-0.05848450542099627</v>
+      </c>
+      <c r="G21">
+        <v>0.1114637269796693</v>
+      </c>
+      <c r="H21">
+        <v>-0.005969782356795978</v>
+      </c>
+      <c r="I21">
+        <v>-0.1902721387079949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.007824962836591471</v>
+        <v>-0.01322891901374559</v>
       </c>
       <c r="C22">
-        <v>0.07317862465112088</v>
+        <v>0.1032224994599363</v>
       </c>
       <c r="D22">
-        <v>0.1998631353750658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1882594968004848</v>
+      </c>
+      <c r="E22">
+        <v>0.1478515837088779</v>
+      </c>
+      <c r="F22">
+        <v>-0.2501555908309338</v>
+      </c>
+      <c r="G22">
+        <v>-0.1209538643133528</v>
+      </c>
+      <c r="H22">
+        <v>-0.2702486639723941</v>
+      </c>
+      <c r="I22">
+        <v>0.4146669566135662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.007921231090263424</v>
+        <v>-0.01003897173798434</v>
       </c>
       <c r="C23">
-        <v>0.07440522445987263</v>
+        <v>0.1061087849651134</v>
       </c>
       <c r="D23">
-        <v>0.1992585387820969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1904071651773916</v>
+      </c>
+      <c r="E23">
+        <v>0.1447131924253223</v>
+      </c>
+      <c r="F23">
+        <v>-0.2462664123570017</v>
+      </c>
+      <c r="G23">
+        <v>-0.114141026596853</v>
+      </c>
+      <c r="H23">
+        <v>-0.2592779586115549</v>
+      </c>
+      <c r="I23">
+        <v>0.3879361523455624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.007436759067654374</v>
+        <v>0.01006791840744415</v>
       </c>
       <c r="C24">
-        <v>0.06714336909573108</v>
+        <v>0.07480142161262929</v>
       </c>
       <c r="D24">
-        <v>0.05301993506395412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02061732396717462</v>
+      </c>
+      <c r="E24">
+        <v>0.05082297835227522</v>
+      </c>
+      <c r="F24">
+        <v>-0.003539266445752326</v>
+      </c>
+      <c r="G24">
+        <v>5.891429775495352e-05</v>
+      </c>
+      <c r="H24">
+        <v>0.02794939976954424</v>
+      </c>
+      <c r="I24">
+        <v>-0.06090484577800186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01012868421095121</v>
+        <v>0.0141397028149166</v>
       </c>
       <c r="C25">
-        <v>0.05925725048386674</v>
+        <v>0.0687112141889156</v>
       </c>
       <c r="D25">
-        <v>0.04452816156119106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02197728036785002</v>
+      </c>
+      <c r="E25">
+        <v>0.03896810626623773</v>
+      </c>
+      <c r="F25">
+        <v>-0.006689116384367547</v>
+      </c>
+      <c r="G25">
+        <v>-0.004024462814585547</v>
+      </c>
+      <c r="H25">
+        <v>0.0352410969494213</v>
+      </c>
+      <c r="I25">
+        <v>-0.03938071044688884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007125961516554029</v>
+        <v>0.01675472419507688</v>
       </c>
       <c r="C26">
-        <v>0.02967286933661354</v>
+        <v>0.04793800395267296</v>
       </c>
       <c r="D26">
-        <v>0.05225146508049167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.009592588857273694</v>
+      </c>
+      <c r="E26">
+        <v>0.08503998534464077</v>
+      </c>
+      <c r="F26">
+        <v>-0.04083878135360464</v>
+      </c>
+      <c r="G26">
+        <v>0.01090020181478969</v>
+      </c>
+      <c r="H26">
+        <v>0.02803846720923411</v>
+      </c>
+      <c r="I26">
+        <v>-0.1228123261024642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3105205686925421</v>
+        <v>0.3167725030705875</v>
       </c>
       <c r="C28">
-        <v>-0.1186268591493254</v>
+        <v>-0.09249997941408994</v>
       </c>
       <c r="D28">
-        <v>-0.02973170988742195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01559253512996262</v>
+      </c>
+      <c r="E28">
+        <v>-0.03410957624168512</v>
+      </c>
+      <c r="F28">
+        <v>-0.05468363163907124</v>
+      </c>
+      <c r="G28">
+        <v>-0.0439702381897126</v>
+      </c>
+      <c r="H28">
+        <v>-0.04911190988289531</v>
+      </c>
+      <c r="I28">
+        <v>-0.06572044385753535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>6.503494811641337e-05</v>
+        <v>0.002362454797407077</v>
       </c>
       <c r="C29">
-        <v>0.03516893607526632</v>
+        <v>0.0590177193742828</v>
       </c>
       <c r="D29">
-        <v>0.06990659740349546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.05246532113332819</v>
+      </c>
+      <c r="E29">
+        <v>0.1065411975684771</v>
+      </c>
+      <c r="F29">
+        <v>-0.02837093983212194</v>
+      </c>
+      <c r="G29">
+        <v>0.06235608425032601</v>
+      </c>
+      <c r="H29">
+        <v>0.08452940629296851</v>
+      </c>
+      <c r="I29">
+        <v>-0.1756515117295257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01667049443526182</v>
+        <v>0.01653383508331471</v>
       </c>
       <c r="C30">
-        <v>0.09761174311941348</v>
+        <v>0.1185010540475595</v>
       </c>
       <c r="D30">
-        <v>0.1290553069683289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0722633965253596</v>
+      </c>
+      <c r="E30">
+        <v>0.1088979452672732</v>
+      </c>
+      <c r="F30">
+        <v>-0.0579275888897198</v>
+      </c>
+      <c r="G30">
+        <v>-0.01199332349326137</v>
+      </c>
+      <c r="H30">
+        <v>0.004902098831502811</v>
+      </c>
+      <c r="I30">
+        <v>-0.02364012730218005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01032515510663282</v>
+        <v>0.007714748665820267</v>
       </c>
       <c r="C31">
-        <v>0.09957191645644579</v>
+        <v>0.1031030175161841</v>
       </c>
       <c r="D31">
-        <v>0.03295211279308732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.001421833005061812</v>
+      </c>
+      <c r="E31">
+        <v>0.02500293794588345</v>
+      </c>
+      <c r="F31">
+        <v>0.003260737074874205</v>
+      </c>
+      <c r="G31">
+        <v>0.0002625185526475764</v>
+      </c>
+      <c r="H31">
+        <v>-0.02489408938527152</v>
+      </c>
+      <c r="I31">
+        <v>-0.05717391418050786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01449101333231291</v>
+        <v>0.01327983695838105</v>
       </c>
       <c r="C32">
-        <v>0.05906220265253985</v>
+        <v>0.06552274546739861</v>
       </c>
       <c r="D32">
-        <v>0.0907347716144358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04259191071063573</v>
+      </c>
+      <c r="E32">
+        <v>0.0533137731097573</v>
+      </c>
+      <c r="F32">
+        <v>-0.08582715483334723</v>
+      </c>
+      <c r="G32">
+        <v>0.05227590645519903</v>
+      </c>
+      <c r="H32">
+        <v>-0.007807987773787213</v>
+      </c>
+      <c r="I32">
+        <v>-0.09433598991255686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.003518705552603888</v>
+        <v>0.008121402480618297</v>
       </c>
       <c r="C33">
-        <v>0.05949889582112634</v>
+        <v>0.08423577627745825</v>
       </c>
       <c r="D33">
-        <v>0.08289826442045845</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05835102683403527</v>
+      </c>
+      <c r="E33">
+        <v>0.07829100199659773</v>
+      </c>
+      <c r="F33">
+        <v>-0.02905462683496429</v>
+      </c>
+      <c r="G33">
+        <v>0.003258224251974543</v>
+      </c>
+      <c r="H33">
+        <v>0.03455436123570552</v>
+      </c>
+      <c r="I33">
+        <v>-0.05876323345745291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006104617968923884</v>
+        <v>0.01016983516015175</v>
       </c>
       <c r="C34">
-        <v>0.06935755290692244</v>
+        <v>0.06764494892013895</v>
       </c>
       <c r="D34">
-        <v>0.06733037822378761</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01970001245228348</v>
+      </c>
+      <c r="E34">
+        <v>0.0437283927206761</v>
+      </c>
+      <c r="F34">
+        <v>0.03206849111477007</v>
+      </c>
+      <c r="G34">
+        <v>0.006087051186740693</v>
+      </c>
+      <c r="H34">
+        <v>0.01141371364769743</v>
+      </c>
+      <c r="I34">
+        <v>-0.02763412149839408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.001312548199705965</v>
+        <v>0.004835062796000367</v>
       </c>
       <c r="C35">
-        <v>0.001658619033687091</v>
+        <v>0.02317015854989586</v>
       </c>
       <c r="D35">
-        <v>0.006525392262519342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02137911390122565</v>
+      </c>
+      <c r="E35">
+        <v>0.03331069676716449</v>
+      </c>
+      <c r="F35">
+        <v>-0.02370595890474404</v>
+      </c>
+      <c r="G35">
+        <v>0.01674221209246196</v>
+      </c>
+      <c r="H35">
+        <v>0.05121932417952197</v>
+      </c>
+      <c r="I35">
+        <v>-0.1044191572454907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.003414445387894613</v>
+        <v>0.008920115333201981</v>
       </c>
       <c r="C36">
-        <v>0.02753926647860959</v>
+        <v>0.03884804403901495</v>
       </c>
       <c r="D36">
-        <v>0.04233094791363388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01744945019485616</v>
+      </c>
+      <c r="E36">
+        <v>0.06897607363074515</v>
+      </c>
+      <c r="F36">
+        <v>-0.04450615666503473</v>
+      </c>
+      <c r="G36">
+        <v>0.01053083773606311</v>
+      </c>
+      <c r="H36">
+        <v>0.02926005781631191</v>
+      </c>
+      <c r="I36">
+        <v>-0.07189333378324182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005638175694817528</v>
+        <v>0.007237396864253282</v>
       </c>
       <c r="C38">
-        <v>0.01662212276360161</v>
+        <v>0.0403101428510575</v>
       </c>
       <c r="D38">
-        <v>0.0647766104849096</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.04232375213025926</v>
+      </c>
+      <c r="E38">
+        <v>0.0770534076552435</v>
+      </c>
+      <c r="F38">
+        <v>-0.02064560399228713</v>
+      </c>
+      <c r="G38">
+        <v>-0.04629708742024762</v>
+      </c>
+      <c r="H38">
+        <v>-0.002003702864231165</v>
+      </c>
+      <c r="I38">
+        <v>-0.07658071934439467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.007824761468707281</v>
+        <v>0.00749415607712394</v>
       </c>
       <c r="C39">
-        <v>0.07804657023387224</v>
+        <v>0.1025681394282222</v>
       </c>
       <c r="D39">
-        <v>0.1013303601833494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04218504980057083</v>
+      </c>
+      <c r="E39">
+        <v>0.09321069061645296</v>
+      </c>
+      <c r="F39">
+        <v>-0.004004136207529343</v>
+      </c>
+      <c r="G39">
+        <v>0.01567901794238816</v>
+      </c>
+      <c r="H39">
+        <v>0.04244010382285694</v>
+      </c>
+      <c r="I39">
+        <v>-0.05842009303047125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.002266507767758984</v>
+        <v>0.007979106126127263</v>
       </c>
       <c r="C40">
-        <v>0.02916588404969331</v>
+        <v>0.0516749089405865</v>
       </c>
       <c r="D40">
-        <v>0.09931101416050589</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.07302854152366108</v>
+      </c>
+      <c r="E40">
+        <v>0.1077467312777808</v>
+      </c>
+      <c r="F40">
+        <v>0.01498928479460578</v>
+      </c>
+      <c r="G40">
+        <v>0.02137512623551718</v>
+      </c>
+      <c r="H40">
+        <v>0.02750953391297057</v>
+      </c>
+      <c r="I40">
+        <v>-0.01009660108142216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.006271648361907084</v>
+        <v>0.01631965226977294</v>
       </c>
       <c r="C41">
-        <v>0.02213204917958175</v>
+        <v>0.03990238163230649</v>
       </c>
       <c r="D41">
-        <v>0.01741506652309098</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0171042707349044</v>
+      </c>
+      <c r="E41">
+        <v>0.01782786377222976</v>
+      </c>
+      <c r="F41">
+        <v>0.006212131512352131</v>
+      </c>
+      <c r="G41">
+        <v>-0.007517399341044438</v>
+      </c>
+      <c r="H41">
+        <v>0.01230584408692699</v>
+      </c>
+      <c r="I41">
+        <v>-0.04554016186663296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00464180750104999</v>
+        <v>0.007582635189417545</v>
       </c>
       <c r="C43">
-        <v>0.01696864413436578</v>
+        <v>0.03250714764556519</v>
       </c>
       <c r="D43">
-        <v>0.03532259871147041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02085009938523858</v>
+      </c>
+      <c r="E43">
+        <v>0.04131661050693536</v>
+      </c>
+      <c r="F43">
+        <v>-0.004563871891348982</v>
+      </c>
+      <c r="G43">
+        <v>-0.01163102748188402</v>
+      </c>
+      <c r="H43">
+        <v>0.0205215681339211</v>
+      </c>
+      <c r="I43">
+        <v>-0.05509550559363689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01250253501454973</v>
+        <v>0.005650300796978827</v>
       </c>
       <c r="C44">
-        <v>0.05652479258225539</v>
+        <v>0.07366245660073074</v>
       </c>
       <c r="D44">
-        <v>0.08533294938309464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0473548799421333</v>
+      </c>
+      <c r="E44">
+        <v>0.09873598038749866</v>
+      </c>
+      <c r="F44">
+        <v>-0.04949601465244094</v>
+      </c>
+      <c r="G44">
+        <v>-0.006868926421711721</v>
+      </c>
+      <c r="H44">
+        <v>-0.005409978272718074</v>
+      </c>
+      <c r="I44">
+        <v>-0.02820548084262368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.003513685517553905</v>
+        <v>-0.002550247116550048</v>
       </c>
       <c r="C46">
-        <v>0.04135962412057071</v>
+        <v>0.05193344761755003</v>
       </c>
       <c r="D46">
-        <v>0.07091735257206042</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02958104839197773</v>
+      </c>
+      <c r="E46">
+        <v>0.08622124635612136</v>
+      </c>
+      <c r="F46">
+        <v>-0.02692625657582663</v>
+      </c>
+      <c r="G46">
+        <v>0.01490387362786358</v>
+      </c>
+      <c r="H46">
+        <v>0.05334962843678046</v>
+      </c>
+      <c r="I46">
+        <v>-0.1133161070631534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03901970259799534</v>
+        <v>0.02572875359174867</v>
       </c>
       <c r="C47">
-        <v>0.1257799553026826</v>
+        <v>0.1210339396126414</v>
       </c>
       <c r="D47">
-        <v>0.03857547225261215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004533234038760359</v>
+      </c>
+      <c r="E47">
+        <v>0.01530636314828932</v>
+      </c>
+      <c r="F47">
+        <v>0.00445001630063456</v>
+      </c>
+      <c r="G47">
+        <v>-0.01114130319874768</v>
+      </c>
+      <c r="H47">
+        <v>-0.004709377903554685</v>
+      </c>
+      <c r="I47">
+        <v>-0.08679465067226112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004046614835915721</v>
+        <v>0.01219347226745128</v>
       </c>
       <c r="C48">
-        <v>0.03326072155708342</v>
+        <v>0.04686210302858596</v>
       </c>
       <c r="D48">
-        <v>0.04511100831757226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01087518529861943</v>
+      </c>
+      <c r="E48">
+        <v>0.07964925106490241</v>
+      </c>
+      <c r="F48">
+        <v>-0.05388618445853662</v>
+      </c>
+      <c r="G48">
+        <v>0.004473088290827106</v>
+      </c>
+      <c r="H48">
+        <v>0.03459808282018734</v>
+      </c>
+      <c r="I48">
+        <v>-0.1160923448969835</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002751694874336547</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006003362419047953</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0008321330966248555</v>
+      </c>
+      <c r="E49">
+        <v>0.002700020248605137</v>
+      </c>
+      <c r="F49">
+        <v>0.01221044273198039</v>
+      </c>
+      <c r="G49">
+        <v>0.006851830597398165</v>
+      </c>
+      <c r="H49">
+        <v>0.01540497524499948</v>
+      </c>
+      <c r="I49">
+        <v>0.008409516818174839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.009028150752596938</v>
+        <v>0.008126199858411029</v>
       </c>
       <c r="C50">
-        <v>0.06647347114232749</v>
+        <v>0.07872113465631426</v>
       </c>
       <c r="D50">
-        <v>0.04651226327877373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02113566795261844</v>
+      </c>
+      <c r="E50">
+        <v>0.03265251227549286</v>
+      </c>
+      <c r="F50">
+        <v>-0.008530387894791958</v>
+      </c>
+      <c r="G50">
+        <v>-0.008482762717770287</v>
+      </c>
+      <c r="H50">
+        <v>-0.01581504940836182</v>
+      </c>
+      <c r="I50">
+        <v>-0.06007382223446225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.002527879559874887</v>
+        <v>-0.006908697608347906</v>
       </c>
       <c r="C51">
-        <v>0.02096744168701657</v>
+        <v>0.02981882838854766</v>
       </c>
       <c r="D51">
-        <v>0.06221872862640514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0183957330202326</v>
+      </c>
+      <c r="E51">
+        <v>0.0547934067140345</v>
+      </c>
+      <c r="F51">
+        <v>-0.04242398250127206</v>
+      </c>
+      <c r="G51">
+        <v>0.02207455196176433</v>
+      </c>
+      <c r="H51">
+        <v>-0.005199604735442058</v>
+      </c>
+      <c r="I51">
+        <v>-0.09193310965960906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.07618880482950365</v>
+        <v>0.05781770431882624</v>
       </c>
       <c r="C53">
-        <v>0.1604117763574342</v>
+        <v>0.1656934774507386</v>
       </c>
       <c r="D53">
-        <v>-0.004805724574548624</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0432521535565385</v>
+      </c>
+      <c r="E53">
+        <v>-0.04194565715389521</v>
+      </c>
+      <c r="F53">
+        <v>0.01784208990648643</v>
+      </c>
+      <c r="G53">
+        <v>-0.01658152613442004</v>
+      </c>
+      <c r="H53">
+        <v>-0.02574036901861191</v>
+      </c>
+      <c r="I53">
+        <v>-0.02889901931489444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.001712917902218523</v>
+        <v>0.009188487306514634</v>
       </c>
       <c r="C54">
-        <v>0.04012610547769482</v>
+        <v>0.05551235537082713</v>
       </c>
       <c r="D54">
-        <v>0.08199505304512308</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0537775682310732</v>
+      </c>
+      <c r="E54">
+        <v>0.05622180962880739</v>
+      </c>
+      <c r="F54">
+        <v>-0.01255686572445697</v>
+      </c>
+      <c r="G54">
+        <v>-0.003034962690405136</v>
+      </c>
+      <c r="H54">
+        <v>0.01094117155680636</v>
+      </c>
+      <c r="I54">
+        <v>-0.09665870233451933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.05240870302557964</v>
+        <v>0.03440640143711597</v>
       </c>
       <c r="C55">
-        <v>0.1239173965487474</v>
+        <v>0.1223995316655059</v>
       </c>
       <c r="D55">
-        <v>-0.004092290785353754</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05619802830136411</v>
+      </c>
+      <c r="E55">
+        <v>-0.01378778771360099</v>
+      </c>
+      <c r="F55">
+        <v>0.03630143749361991</v>
+      </c>
+      <c r="G55">
+        <v>-0.00253200079163412</v>
+      </c>
+      <c r="H55">
+        <v>-0.03747391429300116</v>
+      </c>
+      <c r="I55">
+        <v>-0.02610749676496672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.08383927350921651</v>
+        <v>0.05464260429602963</v>
       </c>
       <c r="C56">
-        <v>0.1834839480810632</v>
+        <v>0.1892460650369512</v>
       </c>
       <c r="D56">
-        <v>0.02255970307329122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05797104531779532</v>
+      </c>
+      <c r="E56">
+        <v>-0.03256546022262327</v>
+      </c>
+      <c r="F56">
+        <v>0.06485275290485608</v>
+      </c>
+      <c r="G56">
+        <v>-0.0228958768124718</v>
+      </c>
+      <c r="H56">
+        <v>-0.1122524154927452</v>
+      </c>
+      <c r="I56">
+        <v>-0.02616792145394701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01542639111963374</v>
+        <v>0.009172496954349544</v>
       </c>
       <c r="C58">
-        <v>0.05639341679124386</v>
+        <v>0.1065243264799305</v>
       </c>
       <c r="D58">
-        <v>0.182601423751983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1731579305816611</v>
+      </c>
+      <c r="E58">
+        <v>0.1378122793247575</v>
+      </c>
+      <c r="F58">
+        <v>-0.2590706606847673</v>
+      </c>
+      <c r="G58">
+        <v>-0.05162783162933073</v>
+      </c>
+      <c r="H58">
+        <v>-0.1519145316174462</v>
+      </c>
+      <c r="I58">
+        <v>0.07344578383322711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2379469050959907</v>
+        <v>0.2686706676078315</v>
       </c>
       <c r="C59">
-        <v>-0.07200564632365923</v>
+        <v>-0.04747431769556092</v>
       </c>
       <c r="D59">
-        <v>0.05355653942833354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02822711373990611</v>
+      </c>
+      <c r="E59">
+        <v>0.0259534818687427</v>
+      </c>
+      <c r="F59">
+        <v>-0.02797643139841949</v>
+      </c>
+      <c r="G59">
+        <v>0.01839267383143828</v>
+      </c>
+      <c r="H59">
+        <v>-0.005672576384837583</v>
+      </c>
+      <c r="I59">
+        <v>0.02329498432352835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1382566787714189</v>
+        <v>0.146455965760002</v>
       </c>
       <c r="C60">
-        <v>0.1369340403591443</v>
+        <v>0.1624294701119858</v>
       </c>
       <c r="D60">
-        <v>0.09422696672048732</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04696289708205947</v>
+      </c>
+      <c r="E60">
+        <v>0.06622209474676143</v>
+      </c>
+      <c r="F60">
+        <v>0.2025390294104022</v>
+      </c>
+      <c r="G60">
+        <v>0.09313251859186282</v>
+      </c>
+      <c r="H60">
+        <v>0.2106968803780696</v>
+      </c>
+      <c r="I60">
+        <v>0.2733032098194714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0142894600141525</v>
+        <v>0.0144503801132579</v>
       </c>
       <c r="C61">
-        <v>0.06689361962520976</v>
+        <v>0.08925498471412388</v>
       </c>
       <c r="D61">
-        <v>0.07205307835064062</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02928755510518323</v>
+      </c>
+      <c r="E61">
+        <v>0.07368708913103172</v>
+      </c>
+      <c r="F61">
+        <v>0.009677955058697951</v>
+      </c>
+      <c r="G61">
+        <v>0.001845211973775096</v>
+      </c>
+      <c r="H61">
+        <v>0.03516077193132437</v>
+      </c>
+      <c r="I61">
+        <v>-0.06854307786461518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0003452780138556794</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0008951632721659637</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>9.294942721776874e-05</v>
+      </c>
+      <c r="E62">
+        <v>0.0001307974092726853</v>
+      </c>
+      <c r="F62">
+        <v>-0.00190191445019184</v>
+      </c>
+      <c r="G62">
+        <v>-3.359654601637822e-05</v>
+      </c>
+      <c r="H62">
+        <v>-0.0009490102824081623</v>
+      </c>
+      <c r="I62">
+        <v>-0.002322493689585499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.001260912175360246</v>
+        <v>0.01563210616273759</v>
       </c>
       <c r="C63">
-        <v>0.04661756774125395</v>
+        <v>0.06268683861220431</v>
       </c>
       <c r="D63">
-        <v>0.06261407445212784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01945864819891742</v>
+      </c>
+      <c r="E63">
+        <v>0.0781766378890467</v>
+      </c>
+      <c r="F63">
+        <v>-0.01395517679900582</v>
+      </c>
+      <c r="G63">
+        <v>0.006331787552753509</v>
+      </c>
+      <c r="H63">
+        <v>0.03249673948327597</v>
+      </c>
+      <c r="I63">
+        <v>-0.07264502946968944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.02788235659558995</v>
+        <v>0.01534143093655656</v>
       </c>
       <c r="C64">
-        <v>0.1100272414352833</v>
+        <v>0.1060360057205777</v>
       </c>
       <c r="D64">
-        <v>0.01341719455539938</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01134195565365708</v>
+      </c>
+      <c r="E64">
+        <v>0.02589404223731276</v>
+      </c>
+      <c r="F64">
+        <v>-0.02057113840024931</v>
+      </c>
+      <c r="G64">
+        <v>-0.01522830040627251</v>
+      </c>
+      <c r="H64">
+        <v>0.05389272674321421</v>
+      </c>
+      <c r="I64">
+        <v>0.01833570832526667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01608397491364663</v>
+        <v>0.02263681061756023</v>
       </c>
       <c r="C65">
-        <v>0.03798872547292256</v>
+        <v>0.06231583220269851</v>
       </c>
       <c r="D65">
-        <v>0.08422942550507267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07560874956697093</v>
+      </c>
+      <c r="E65">
+        <v>0.08724055425190856</v>
+      </c>
+      <c r="F65">
+        <v>-0.01524362067945358</v>
+      </c>
+      <c r="G65">
+        <v>-0.005590129267047324</v>
+      </c>
+      <c r="H65">
+        <v>0.09279065171693603</v>
+      </c>
+      <c r="I65">
+        <v>0.02587334444691446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01472110890209311</v>
+        <v>0.009204277688411183</v>
       </c>
       <c r="C66">
-        <v>0.09483383134439262</v>
+        <v>0.1264515585253012</v>
       </c>
       <c r="D66">
-        <v>0.1301551743881746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07405598018903983</v>
+      </c>
+      <c r="E66">
+        <v>0.09760395923892043</v>
+      </c>
+      <c r="F66">
+        <v>-0.01484299293063302</v>
+      </c>
+      <c r="G66">
+        <v>0.005529259186463458</v>
+      </c>
+      <c r="H66">
+        <v>0.01096415545397451</v>
+      </c>
+      <c r="I66">
+        <v>-0.049786410420483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0165256436457321</v>
+        <v>0.01694211953845655</v>
       </c>
       <c r="C67">
-        <v>0.02118380141551721</v>
+        <v>0.04120222309313373</v>
       </c>
       <c r="D67">
-        <v>0.03640009363083807</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01715867598710548</v>
+      </c>
+      <c r="E67">
+        <v>0.06275548149584928</v>
+      </c>
+      <c r="F67">
+        <v>0.01953407474749484</v>
+      </c>
+      <c r="G67">
+        <v>-0.03990322363355366</v>
+      </c>
+      <c r="H67">
+        <v>0.01848095473707757</v>
+      </c>
+      <c r="I67">
+        <v>-0.06260033294970149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2364823739826608</v>
+        <v>0.2776544735833489</v>
       </c>
       <c r="C68">
-        <v>-0.08307332536507256</v>
+        <v>-0.05644418310181998</v>
       </c>
       <c r="D68">
-        <v>0.02463648912815271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04493707871897076</v>
+      </c>
+      <c r="E68">
+        <v>0.01051782840283315</v>
+      </c>
+      <c r="F68">
+        <v>-0.04354433167137731</v>
+      </c>
+      <c r="G68">
+        <v>-0.01125925058864165</v>
+      </c>
+      <c r="H68">
+        <v>-0.04024517153044813</v>
+      </c>
+      <c r="I68">
+        <v>0.007891681006583634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.02953083967462734</v>
+        <v>0.01211464387472841</v>
       </c>
       <c r="C69">
-        <v>0.1285997572371975</v>
+        <v>0.1096437349795205</v>
       </c>
       <c r="D69">
-        <v>0.04937173914016123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01423076247236751</v>
+      </c>
+      <c r="E69">
+        <v>0.02666421240074206</v>
+      </c>
+      <c r="F69">
+        <v>0.0194600182801593</v>
+      </c>
+      <c r="G69">
+        <v>-0.003770238689319563</v>
+      </c>
+      <c r="H69">
+        <v>-0.007567509353609553</v>
+      </c>
+      <c r="I69">
+        <v>-0.05200667031544303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2586368020980394</v>
+        <v>0.2700541678280614</v>
       </c>
       <c r="C71">
-        <v>-0.1060871153558977</v>
+        <v>-0.07582925722239606</v>
       </c>
       <c r="D71">
-        <v>0.020215261211492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01658891121899501</v>
+      </c>
+      <c r="E71">
+        <v>0.01853476424421006</v>
+      </c>
+      <c r="F71">
+        <v>-0.01976257591622632</v>
+      </c>
+      <c r="G71">
+        <v>-0.02943611842840806</v>
+      </c>
+      <c r="H71">
+        <v>-0.01137174918705117</v>
+      </c>
+      <c r="I71">
+        <v>-0.07235251493037823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.07406562848909337</v>
+        <v>0.05988564975743282</v>
       </c>
       <c r="C72">
-        <v>0.1155666198686667</v>
+        <v>0.1340394770543746</v>
       </c>
       <c r="D72">
-        <v>0.08427225855915461</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02242435410617469</v>
+      </c>
+      <c r="E72">
+        <v>0.0506032790354255</v>
+      </c>
+      <c r="F72">
+        <v>0.02052495197405627</v>
+      </c>
+      <c r="G72">
+        <v>0.01180420858773006</v>
+      </c>
+      <c r="H72">
+        <v>0.03638055932733945</v>
+      </c>
+      <c r="I72">
+        <v>0.02614041555024897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1144265808099504</v>
+        <v>0.1404130591418412</v>
       </c>
       <c r="C73">
-        <v>0.1243211469902987</v>
+        <v>0.174993157736098</v>
       </c>
       <c r="D73">
-        <v>0.137786571108903</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06141975812744777</v>
+      </c>
+      <c r="E73">
+        <v>0.1560524555383955</v>
+      </c>
+      <c r="F73">
+        <v>0.2988091992594351</v>
+      </c>
+      <c r="G73">
+        <v>0.1130040755147022</v>
+      </c>
+      <c r="H73">
+        <v>0.3259131795452729</v>
+      </c>
+      <c r="I73">
+        <v>0.3032842854979449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.06565551223919189</v>
+        <v>0.04581626678612375</v>
       </c>
       <c r="C74">
-        <v>0.1404652379011649</v>
+        <v>0.1377793886080921</v>
       </c>
       <c r="D74">
-        <v>-0.05370034544911421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06886666358890456</v>
+      </c>
+      <c r="E74">
+        <v>-0.03867318373163949</v>
+      </c>
+      <c r="F74">
+        <v>0.0126290057918437</v>
+      </c>
+      <c r="G74">
+        <v>-0.01376892929026099</v>
+      </c>
+      <c r="H74">
+        <v>-0.01828788196151164</v>
+      </c>
+      <c r="I74">
+        <v>-0.03588892916809329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1632883074583097</v>
+        <v>0.09327987750920629</v>
       </c>
       <c r="C75">
-        <v>0.2386498642285465</v>
+        <v>0.2410347084425519</v>
       </c>
       <c r="D75">
-        <v>-0.02612170035540555</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1162762769191923</v>
+      </c>
+      <c r="E75">
+        <v>-0.09502972993092583</v>
+      </c>
+      <c r="F75">
+        <v>0.146387858716957</v>
+      </c>
+      <c r="G75">
+        <v>-0.1344015711969805</v>
+      </c>
+      <c r="H75">
+        <v>-0.1892045946561409</v>
+      </c>
+      <c r="I75">
+        <v>-0.04612726253762834</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.08612488507573667</v>
+        <v>0.05328995131361627</v>
       </c>
       <c r="C76">
-        <v>0.1704319180040547</v>
+        <v>0.1751768983717702</v>
       </c>
       <c r="D76">
-        <v>0.008753444646578176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06288561541748415</v>
+      </c>
+      <c r="E76">
+        <v>-0.02507027409484565</v>
+      </c>
+      <c r="F76">
+        <v>0.08339674138062998</v>
+      </c>
+      <c r="G76">
+        <v>-0.01890696595807569</v>
+      </c>
+      <c r="H76">
+        <v>-0.0576531100374708</v>
+      </c>
+      <c r="I76">
+        <v>-0.05867913168155491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0251280684070087</v>
+        <v>0.02014353094067119</v>
       </c>
       <c r="C77">
-        <v>0.08217080880555845</v>
+        <v>0.1297538700083688</v>
       </c>
       <c r="D77">
-        <v>0.2442851595824913</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7392645260999642</v>
+      </c>
+      <c r="E77">
+        <v>-0.6303616395307832</v>
+      </c>
+      <c r="F77">
+        <v>0.07745805229468244</v>
+      </c>
+      <c r="G77">
+        <v>-0.04574042603428463</v>
+      </c>
+      <c r="H77">
+        <v>0.07981236523428141</v>
+      </c>
+      <c r="I77">
+        <v>-0.08705729576900106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02421530255251952</v>
+        <v>0.02361145022729643</v>
       </c>
       <c r="C78">
-        <v>0.09505947132657822</v>
+        <v>0.1056009069861599</v>
       </c>
       <c r="D78">
-        <v>0.1164528529824748</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01866034173309686</v>
+      </c>
+      <c r="E78">
+        <v>0.09901078187356271</v>
+      </c>
+      <c r="F78">
+        <v>-0.05033438631959341</v>
+      </c>
+      <c r="G78">
+        <v>0.02846799092235035</v>
+      </c>
+      <c r="H78">
+        <v>-0.09317305551350488</v>
+      </c>
+      <c r="I78">
+        <v>-0.09983949061063523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08017486577541565</v>
+        <v>0.05385542956205659</v>
       </c>
       <c r="C79">
-        <v>0.3372557188117112</v>
+        <v>0.2665942558264457</v>
       </c>
       <c r="D79">
-        <v>-0.6759398452358425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.3366276387475244</v>
+      </c>
+      <c r="E79">
+        <v>-0.3867839981303713</v>
+      </c>
+      <c r="F79">
+        <v>-0.6282366772864455</v>
+      </c>
+      <c r="G79">
+        <v>0.09407968704557708</v>
+      </c>
+      <c r="H79">
+        <v>0.4173214317200742</v>
+      </c>
+      <c r="I79">
+        <v>0.1424190502061539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003100501168323741</v>
+        <v>0.007578531496917803</v>
       </c>
       <c r="C80">
-        <v>0.0530518281324474</v>
+        <v>0.05304252905877939</v>
       </c>
       <c r="D80">
-        <v>0.03017414601728379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0007907136459058646</v>
+      </c>
+      <c r="E80">
+        <v>0.06279296171777742</v>
+      </c>
+      <c r="F80">
+        <v>0.02611066313759434</v>
+      </c>
+      <c r="G80">
+        <v>0.06789644336335462</v>
+      </c>
+      <c r="H80">
+        <v>0.02069694632593515</v>
+      </c>
+      <c r="I80">
+        <v>0.02321755703474938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.07294730800761853</v>
+        <v>0.03263353237551475</v>
       </c>
       <c r="C81">
-        <v>0.1614652618777943</v>
+        <v>0.1571624612504416</v>
       </c>
       <c r="D81">
-        <v>-0.05813504212570701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08195312188050519</v>
+      </c>
+      <c r="E81">
+        <v>-0.05972540834151706</v>
+      </c>
+      <c r="F81">
+        <v>0.02731868808618926</v>
+      </c>
+      <c r="G81">
+        <v>-0.02503878059788201</v>
+      </c>
+      <c r="H81">
+        <v>-0.06982995407946459</v>
+      </c>
+      <c r="I81">
+        <v>-0.08144444788130746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1261974228990024</v>
+        <v>0.06977907796000088</v>
       </c>
       <c r="C82">
-        <v>0.2519671582352846</v>
+        <v>0.2229655106972472</v>
       </c>
       <c r="D82">
-        <v>-0.02476192261068505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1235332941406695</v>
+      </c>
+      <c r="E82">
+        <v>-0.06140882034152562</v>
+      </c>
+      <c r="F82">
+        <v>0.1147014252590101</v>
+      </c>
+      <c r="G82">
+        <v>-0.0149427746423888</v>
+      </c>
+      <c r="H82">
+        <v>-0.1283573688723627</v>
+      </c>
+      <c r="I82">
+        <v>-0.09617354691807806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.001671007517563522</v>
+        <v>0.003395179298055168</v>
       </c>
       <c r="C83">
-        <v>0.05237132170454675</v>
+        <v>0.02043584315071169</v>
       </c>
       <c r="D83">
-        <v>0.03471359075881061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03657048942955476</v>
+      </c>
+      <c r="E83">
+        <v>-0.07688172074715487</v>
+      </c>
+      <c r="F83">
+        <v>-0.01200417953378341</v>
+      </c>
+      <c r="G83">
+        <v>0.9005254891699179</v>
+      </c>
+      <c r="H83">
+        <v>-0.2943933188402195</v>
+      </c>
+      <c r="I83">
+        <v>0.04513105252419316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002681885124117777</v>
+        <v>-0.003283218395959272</v>
       </c>
       <c r="C84">
-        <v>0.01045234032457234</v>
+        <v>0.02561582945198521</v>
       </c>
       <c r="D84">
-        <v>0.02107482622469895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02569279649686349</v>
+      </c>
+      <c r="E84">
+        <v>0.04578436690312818</v>
+      </c>
+      <c r="F84">
+        <v>-0.06046917207336507</v>
+      </c>
+      <c r="G84">
+        <v>-0.04402947615813239</v>
+      </c>
+      <c r="H84">
+        <v>-0.0367426491773041</v>
+      </c>
+      <c r="I84">
+        <v>-0.06613797975735382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.07865928860317878</v>
+        <v>0.04601827380324057</v>
       </c>
       <c r="C85">
-        <v>0.1824812749696158</v>
+        <v>0.1744270237380556</v>
       </c>
       <c r="D85">
-        <v>-0.08457512960676575</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.123785620636567</v>
+      </c>
+      <c r="E85">
+        <v>-0.07092332838126258</v>
+      </c>
+      <c r="F85">
+        <v>0.01410143068545859</v>
+      </c>
+      <c r="G85">
+        <v>-0.02358292179607938</v>
+      </c>
+      <c r="H85">
+        <v>-0.05836886606579209</v>
+      </c>
+      <c r="I85">
+        <v>-0.0391379546495902</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02816430039288816</v>
+        <v>0.01710069128867243</v>
       </c>
       <c r="C86">
-        <v>0.02521256131027155</v>
+        <v>0.05384069965845054</v>
       </c>
       <c r="D86">
-        <v>0.08108265005384888</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05936976367910231</v>
+      </c>
+      <c r="E86">
+        <v>0.03771363133152602</v>
+      </c>
+      <c r="F86">
+        <v>-0.07945221022431552</v>
+      </c>
+      <c r="G86">
+        <v>-0.0376022742876163</v>
+      </c>
+      <c r="H86">
+        <v>-0.03159503417951667</v>
+      </c>
+      <c r="I86">
+        <v>-0.05133224010096225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02350356009476815</v>
+        <v>0.01487248334661078</v>
       </c>
       <c r="C87">
-        <v>0.06506153811825935</v>
+        <v>0.08542946513243793</v>
       </c>
       <c r="D87">
-        <v>0.1256495872077797</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08945132364685679</v>
+      </c>
+      <c r="E87">
+        <v>0.07918894487763006</v>
+      </c>
+      <c r="F87">
+        <v>-0.08406164260746002</v>
+      </c>
+      <c r="G87">
+        <v>-0.0131409065641782</v>
+      </c>
+      <c r="H87">
+        <v>-0.04606138965372218</v>
+      </c>
+      <c r="I87">
+        <v>-0.04344114004076937</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03326523152946331</v>
+        <v>0.03489025579604337</v>
       </c>
       <c r="C88">
-        <v>0.07470688011405287</v>
+        <v>0.08119791456256237</v>
       </c>
       <c r="D88">
-        <v>0.002953890794210143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007447132358050536</v>
+      </c>
+      <c r="E88">
+        <v>0.02642152580563789</v>
+      </c>
+      <c r="F88">
+        <v>0.009760888882220927</v>
+      </c>
+      <c r="G88">
+        <v>-0.006227121146219905</v>
+      </c>
+      <c r="H88">
+        <v>0.02268303725237835</v>
+      </c>
+      <c r="I88">
+        <v>-0.02036970817544137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4178655351788215</v>
+        <v>0.4097016555302075</v>
       </c>
       <c r="C89">
-        <v>-0.2043053256440685</v>
+        <v>-0.1507674846368232</v>
       </c>
       <c r="D89">
-        <v>-0.006026201470461744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03000485240707507</v>
+      </c>
+      <c r="E89">
+        <v>0.0150880511844535</v>
+      </c>
+      <c r="F89">
+        <v>-0.1058906616547157</v>
+      </c>
+      <c r="G89">
+        <v>0.1059184722423159</v>
+      </c>
+      <c r="H89">
+        <v>-0.06253661026577356</v>
+      </c>
+      <c r="I89">
+        <v>-0.02877038974033554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3177703814606445</v>
+        <v>0.3247140220461757</v>
       </c>
       <c r="C90">
-        <v>-0.1358118089153966</v>
+        <v>-0.08985179220580448</v>
       </c>
       <c r="D90">
-        <v>0.07153941195655247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03733004853180066</v>
+      </c>
+      <c r="E90">
+        <v>0.03556943279767755</v>
+      </c>
+      <c r="F90">
+        <v>0.005081605823826509</v>
+      </c>
+      <c r="G90">
+        <v>-0.01018995210977279</v>
+      </c>
+      <c r="H90">
+        <v>-0.03644090480330009</v>
+      </c>
+      <c r="I90">
+        <v>0.02133850508285494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09813586144398516</v>
+        <v>0.06296073392309538</v>
       </c>
       <c r="C91">
-        <v>0.2207954436988336</v>
+        <v>0.1911927252294314</v>
       </c>
       <c r="D91">
-        <v>-0.08278672882787104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1030982310541398</v>
+      </c>
+      <c r="E91">
+        <v>-0.1010129632350034</v>
+      </c>
+      <c r="F91">
+        <v>0.01109181535521118</v>
+      </c>
+      <c r="G91">
+        <v>0.0113208703809522</v>
+      </c>
+      <c r="H91">
+        <v>-0.04699949544576693</v>
+      </c>
+      <c r="I91">
+        <v>-0.01883710232906279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3209005696927624</v>
+        <v>0.3444312822967045</v>
       </c>
       <c r="C92">
-        <v>-0.1514912847913266</v>
+        <v>-0.1196057061553728</v>
       </c>
       <c r="D92">
-        <v>-0.01284398650741864</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.024344355013449</v>
+      </c>
+      <c r="E92">
+        <v>-0.01691792034090997</v>
+      </c>
+      <c r="F92">
+        <v>-0.06606521498114865</v>
+      </c>
+      <c r="G92">
+        <v>-0.09321039608294938</v>
+      </c>
+      <c r="H92">
+        <v>0.008549947435519479</v>
+      </c>
+      <c r="I92">
+        <v>-0.03297459407736548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3268811545171026</v>
+        <v>0.3267692530248599</v>
       </c>
       <c r="C93">
-        <v>-0.1508937961575599</v>
+        <v>-0.1160803867563219</v>
       </c>
       <c r="D93">
-        <v>-0.04015058787283578</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.03279512551503896</v>
+      </c>
+      <c r="E93">
+        <v>-0.009722560773918998</v>
+      </c>
+      <c r="F93">
+        <v>-0.03417695873359651</v>
+      </c>
+      <c r="G93">
+        <v>-0.01942738561178202</v>
+      </c>
+      <c r="H93">
+        <v>-0.005224783689056351</v>
+      </c>
+      <c r="I93">
+        <v>-0.04068799391912466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1663295131933464</v>
+        <v>0.1114056117135917</v>
       </c>
       <c r="C94">
-        <v>0.2759161835926544</v>
+        <v>0.2647469638219214</v>
       </c>
       <c r="D94">
-        <v>-0.08657944963595045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1989070859997331</v>
+      </c>
+      <c r="E94">
+        <v>-0.1948285693432885</v>
+      </c>
+      <c r="F94">
+        <v>0.2095573790132156</v>
+      </c>
+      <c r="G94">
+        <v>-0.1067565571257327</v>
+      </c>
+      <c r="H94">
+        <v>-0.389388103072815</v>
+      </c>
+      <c r="I94">
+        <v>0.08162494527235291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03484407659313974</v>
+        <v>0.03496402537887889</v>
       </c>
       <c r="C95">
-        <v>0.054023337623227</v>
+        <v>0.09187526334064487</v>
       </c>
       <c r="D95">
-        <v>0.08178453194468843</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05681353981007293</v>
+      </c>
+      <c r="E95">
+        <v>0.07711697767609255</v>
+      </c>
+      <c r="F95">
+        <v>0.07432692731841882</v>
+      </c>
+      <c r="G95">
+        <v>-0.0390904201754564</v>
+      </c>
+      <c r="H95">
+        <v>0.07184022448448867</v>
+      </c>
+      <c r="I95">
+        <v>-0.08585215644311749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002205537980758511</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001927497733123685</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.002049621780252043</v>
+      </c>
+      <c r="E97">
+        <v>0.007957477942515206</v>
+      </c>
+      <c r="F97">
+        <v>-0.0007718001395789604</v>
+      </c>
+      <c r="G97">
+        <v>-0.006821580166530911</v>
+      </c>
+      <c r="H97">
+        <v>0.002852112243851814</v>
+      </c>
+      <c r="I97">
+        <v>-0.0009356641295460338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1023043196487166</v>
+        <v>0.1250337714504559</v>
       </c>
       <c r="C98">
-        <v>0.1103857163326572</v>
+        <v>0.150428741883179</v>
       </c>
       <c r="D98">
-        <v>0.1040287700605104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0329739739827552</v>
+      </c>
+      <c r="E98">
+        <v>0.1133133634206145</v>
+      </c>
+      <c r="F98">
+        <v>0.2324469176367225</v>
+      </c>
+      <c r="G98">
+        <v>0.07404653656766469</v>
+      </c>
+      <c r="H98">
+        <v>0.2834197007840765</v>
+      </c>
+      <c r="I98">
+        <v>0.3114005636390541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001134764438553674</v>
+        <v>0.00249181654101489</v>
       </c>
       <c r="C101">
-        <v>0.03454425526965964</v>
+        <v>0.05795963131535683</v>
       </c>
       <c r="D101">
-        <v>0.06974930680200174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.05251252420656562</v>
+      </c>
+      <c r="E101">
+        <v>0.1052185875029421</v>
+      </c>
+      <c r="F101">
+        <v>-0.02805576484096465</v>
+      </c>
+      <c r="G101">
+        <v>0.06175600073716445</v>
+      </c>
+      <c r="H101">
+        <v>0.08324162841171799</v>
+      </c>
+      <c r="I101">
+        <v>-0.1745809059220278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.0517729783297483</v>
+        <v>0.01832031613102203</v>
       </c>
       <c r="C102">
-        <v>0.138247772343918</v>
+        <v>0.09829303686046424</v>
       </c>
       <c r="D102">
-        <v>0.003919789498378901</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05386113152958296</v>
+      </c>
+      <c r="E102">
+        <v>-0.04717074262574332</v>
+      </c>
+      <c r="F102">
+        <v>0.06440267136390761</v>
+      </c>
+      <c r="G102">
+        <v>0.008344029657521464</v>
+      </c>
+      <c r="H102">
+        <v>-0.06208179821804787</v>
+      </c>
+      <c r="I102">
+        <v>-0.01156965084795484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
